--- a/02_parameter/01_diccionarios_cupos/Cupos_Diputados.xlsx
+++ b/02_parameter/01_diccionarios_cupos/Cupos_Diputados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goyan\Desktop\Simulador_electoral\02_parameter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goyan\Desktop\Simulador_electoral\02_parameter\01_diccionarios_cupos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0E83AE6-DE93-4847-B3FF-85B66F969DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9857920-F30C-4BC8-9875-6A672584D2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cupos_Diputados" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,10 +865,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -885,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -893,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -901,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -909,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -917,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -925,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -949,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -965,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -973,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -981,7 +983,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -997,7 +999,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1013,7 +1015,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1021,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1029,7 +1031,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1037,7 +1039,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1045,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1061,7 +1063,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1069,7 +1071,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1085,7 +1087,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1093,7 +1095,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1101,7 +1103,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
